--- a/data/trans_dic/P16B11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,12 +632,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>20,33; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>34,99; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>81,84; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>90,65; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>96,32; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>94,7; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,27%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>89,63; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>97,14; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>97,61; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>87,52; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>97,45; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>88,63; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>92,12; 99,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,36</t>
+          <t>98,64; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>96,86; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>91,0; 98,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>98,61; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>98,02; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>94,47; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>95,98; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>98,52; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>94,63; 98,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>98,08; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>99,15; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,74%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,85%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>96,66; 99,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>98,41; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>99,35; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>96,52; 99,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>98,9; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>98,51; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>97,44; 99,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>99,11; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>99,27; 100,0</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,82%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>95,81; 98,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>99,2; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>99,61; 100</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>96,77; 98,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>98,9; 99,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>98,96; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>96,8; 98,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>99,16; 99,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>99,41; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>99,38%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>98,25%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>99,5%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>99,43%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>98,36%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>99,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>99,68%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>98,51%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>99,78%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>99,75%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>98,62%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>99,74%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>99,85%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>96,66; 99,61</t>
+          <t>94,87; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98,41; 100,0</t>
+          <t>96,47; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>99,35; 100</t>
+          <t>98,58; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>96,52; 99,44</t>
+          <t>94,9; 99,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>98,9; 100,0</t>
+          <t>97,31; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>98,51; 100,0</t>
+          <t>96,91; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>97,44; 99,38</t>
+          <t>96,5; 99,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>99,11; 100,0</t>
+          <t>98,04; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>99,27; 100,0</t>
+          <t>98,53; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,12 +1292,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1307,32 +1307,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>97,92%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>99,82%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>94,33; 100,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>98,58; 100</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>98,82; 100</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>95,74; 100,0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>99,15; 100</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>98,84; 100</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>96,69; 99,69</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>99,47; 100</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>99,41; 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>97,73%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>99,83%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>98,06%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>99,59%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>99,67%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>97,92%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>99,69%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>99,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>95,81; 98,85</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>99,2; 100,0</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>99,61; 100</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>96,77; 98,99</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>98,9; 99,87</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>98,96; 100,0</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>96,8; 98,64</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>99,16; 99,92</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>99,41; 100,0</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16B11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,33; 100,0</t>
+          <t>21,14; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,7 +826,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,99; 100,0</t>
+          <t>39,03; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -920,7 +921,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,84; 100,0</t>
+          <t>81,56; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +936,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,65; 100,0</t>
+          <t>88,67; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,63; 100,0</t>
+          <t>90,03; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1030,7 +1031,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,52; 100,0</t>
+          <t>89,14; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,12 +1041,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,63; 100,0</t>
+          <t>92,66; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,12; 99,01</t>
+          <t>91,73; 99,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,86; 100,0</t>
+          <t>96,36; 100,0</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,0; 98,51</t>
+          <t>90,84; 98,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1140,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>94,47; 100,0</t>
+          <t>94,68; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>95,98; 100,0</t>
+          <t>96,46; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>94,63; 98,84</t>
+          <t>94,33; 98,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,08; 100,0</t>
+          <t>98,09; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1235,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>94,87; 100,0</t>
+          <t>95,21; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>96,47; 100,0</t>
+          <t>97,43; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>94,9; 99,45</t>
+          <t>94,77; 99,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>97,31; 100,0</t>
+          <t>97,23; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>96,91; 100,0</t>
+          <t>97,12; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>96,5; 99,38</t>
+          <t>96,61; 99,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>98,04; 100,0</t>
+          <t>98,07; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>98,53; 100,0</t>
+          <t>98,41; 100,0</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>94,33; 100,0</t>
+          <t>95,53; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1360,7 +1361,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,74; 100,0</t>
+          <t>95,43; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1375,7 +1376,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,69; 99,69</t>
+          <t>96,62; 99,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1455,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,81; 98,85</t>
+          <t>95,96; 98,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>99,2; 100,0</t>
+          <t>98,96; 100,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1470,7 +1471,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>96,77; 98,99</t>
+          <t>96,67; 98,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1480,22 +1481,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>98,96; 100,0</t>
+          <t>98,86; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>96,8; 98,64</t>
+          <t>96,89; 98,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>99,16; 99,92</t>
+          <t>99,24; 99,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>99,41; 100,0</t>
+          <t>99,39; 100,0</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la tensión arterial  fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>178; 780</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>219; 960</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>206; 902</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>178; 780</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>219; 960</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>206; 902</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4969</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5633</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3861</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8515</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5627</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13483</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7529</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>761; 1766</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3450; 4969</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3911; 5633</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1000; 4728</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6536; 8515</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>816; 1895</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2534; 6494</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11527; 13483</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5779; 7529</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16656</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31364</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21270</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26750</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22579</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15256</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>43405</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>53943</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>36526</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14901; 16656</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29371; 31364</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19346; 21270</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22643; 27762</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20712; 22579</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13451; 15256</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39386; 44417</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>51959; 53943</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34589; 36526</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>63919</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>72529</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>88877</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51781</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>81078</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>59239</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>115701</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>153607</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>148116</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>59486; 66073</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>70456; 72529</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>86749; 88877</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>47858; 53689</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>79008; 81078</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>55901; 60328</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>109861; 118789</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>151518; 153607</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>143773; 149205</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>111727</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>151348</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>106585</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>128655</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>174739</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>145699</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>240382</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>326087</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>252284</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>105748; 114733</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>149245; 151348</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>104479; 106585</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>123706; 130658</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>170529; 176783</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>143550; 145699</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>233061; 244247</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>321852; 328131</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>250142; 252284</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>110910</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>156614</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>138214</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>154321</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>197953</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>169025</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>265232</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>354566</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>307239</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>107192; 112584</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>153536; 157591</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>136251; 138214</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>148852; 156204</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>193425; 198940</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>165110; 169998</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>260503; 267985</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>349635; 356531</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>303326; 308212</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>97574</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>148727</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>137649</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>185063</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>250391</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>222846</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>282638</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>399118</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>360496</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>94044; 98446</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>146614; 148727</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>136019; 137649</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>178889; 187449</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>248274; 250391</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>220271; 222846</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>276222; 285023</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>396996; 399118</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>358380; 360496</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>403333</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>566511</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>498229</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>550433</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>735255</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>614864</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>953765</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1301764</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1113092</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>396056; 408064</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>561596; 567488</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>496300; 498229</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>542661; 555510</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>730171; 737300</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>609914; 616926</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>943786; 961040</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1295800; 1304772</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1108323; 1115154</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>